--- a/statisticsPlottalA.xlsx
+++ b/statisticsPlottalA.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="101">
   <si>
     <t>Task</t>
   </si>
@@ -299,6 +300,30 @@
   </si>
   <si>
     <t>30 hozzáadott csomópont</t>
+  </si>
+  <si>
+    <t>Translation time</t>
+  </si>
+  <si>
+    <t>Preprocessingtime</t>
+  </si>
+  <si>
+    <t>SumGenerationtime</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Fordítási idő/10^2</t>
+  </si>
+  <si>
+    <t>Utófeldolgozási idő</t>
+  </si>
+  <si>
+    <t>Generációs idő/10^5</t>
+  </si>
+  <si>
+    <t>Előfeldolgozási idő/10^8</t>
   </si>
 </sst>
 </file>
@@ -874,6 +899,773 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>A különböző futásidők aránya</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistics!$BN$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utófeldolgozási idő</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistics!$BM$2:$BM$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistics!$BN$2:$BN$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A29-427E-A824-C4F9922A0CE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistics!$BR$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fordítási idő/10^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistics!$BM$2:$BM$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistics!$BR$2:$BR$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A29-427E-A824-C4F9922A0CE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistics!$BS$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generációs idő/10^5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistics!$BM$2:$BM$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistics!$BS$2:$BS$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>83.527969999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.24953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.51098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1463000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.045970000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.10718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124.47394</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.659460000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6183200000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.867719999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.839150000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.883879999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7A29-427E-A824-C4F9922A0CE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistics!$BT$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Előfeldolgozási idő/10^8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistics!$BM$2:$BM$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistics!$BT$2:$BT$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42.919945120000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.430711420000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.549336019999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.967950260000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.390968299999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.461555019999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.412558230000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.270083249999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.76059875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.479416790000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.970433450000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.411101700000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7A29-427E-A824-C4F9922A0CE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1422642607"/>
+        <c:axId val="1422650927"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1422642607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1422650927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1422650927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1422642607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -2020,7 +2812,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2146,7 +2937,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2221,7 +3011,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2288,7 +3077,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3823,7 +4612,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4326,7 +5660,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4846,6 +6180,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>306299</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167362</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -5170,19 +6539,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL43"/>
+  <dimension ref="A1:BT43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="BO20" sqref="BO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="18" customWidth="1"/>
+    <col min="64" max="64" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="27.5703125" customWidth="1"/>
+    <col min="66" max="66" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="19" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="26" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5375,8 +6757,29 @@
       <c r="BL1" t="s">
         <v>63</v>
       </c>
+      <c r="BN1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -5569,8 +6972,39 @@
       <c r="BL2" t="s">
         <v>65</v>
       </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <f>SUM(Sheet2!A1:A50)</f>
+        <v>33</v>
+      </c>
+      <c r="BO2">
+        <f>SUM(Sheet2!B1:B50)</f>
+        <v>1309</v>
+      </c>
+      <c r="BP2">
+        <f>SUM(H2:BE2)</f>
+        <v>8352797</v>
+      </c>
+      <c r="BQ2">
+        <f>SUM(D2:G2)</f>
+        <v>4291994512</v>
+      </c>
+      <c r="BR2">
+        <f>BO2/100</f>
+        <v>13.09</v>
+      </c>
+      <c r="BS2">
+        <f>BP2/100000</f>
+        <v>83.527969999999996</v>
+      </c>
+      <c r="BT2">
+        <f>BQ2/100000000</f>
+        <v>42.919945120000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5763,8 +7197,39 @@
       <c r="BL3" t="s">
         <v>66</v>
       </c>
+      <c r="BM3">
+        <v>2</v>
+      </c>
+      <c r="BN3">
+        <f>SUM(Sheet2!C1:C50)</f>
+        <v>26</v>
+      </c>
+      <c r="BO3">
+        <f>SUM(Sheet2!D1:D50)</f>
+        <v>1155</v>
+      </c>
+      <c r="BP3">
+        <f t="shared" ref="BP3:BP13" si="0">SUM(H3:BE3)</f>
+        <v>4424953</v>
+      </c>
+      <c r="BQ3">
+        <f t="shared" ref="BQ3:BQ13" si="1">SUM(D3:G3)</f>
+        <v>3843071142</v>
+      </c>
+      <c r="BR3">
+        <f t="shared" ref="BR3:BR13" si="2">BO3/100</f>
+        <v>11.55</v>
+      </c>
+      <c r="BS3">
+        <f t="shared" ref="BS3:BS13" si="3">BP3/100000</f>
+        <v>44.24953</v>
+      </c>
+      <c r="BT3">
+        <f t="shared" ref="BT3:BT13" si="4">BQ3/100000000</f>
+        <v>38.430711420000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5957,8 +7422,39 @@
       <c r="BL4" t="s">
         <v>67</v>
       </c>
+      <c r="BM4">
+        <v>3</v>
+      </c>
+      <c r="BN4">
+        <f>SUM(Sheet2!E1:E50)</f>
+        <v>39</v>
+      </c>
+      <c r="BO4">
+        <f>SUM(Sheet2!F1:F50)</f>
+        <v>1491</v>
+      </c>
+      <c r="BP4">
+        <f t="shared" si="0"/>
+        <v>10151098</v>
+      </c>
+      <c r="BQ4">
+        <f t="shared" si="1"/>
+        <v>4154933602</v>
+      </c>
+      <c r="BR4">
+        <f t="shared" si="2"/>
+        <v>14.91</v>
+      </c>
+      <c r="BS4">
+        <f t="shared" si="3"/>
+        <v>101.51098</v>
+      </c>
+      <c r="BT4">
+        <f t="shared" si="4"/>
+        <v>41.549336019999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6151,8 +7647,39 @@
       <c r="BL5" t="s">
         <v>68</v>
       </c>
+      <c r="BM5">
+        <v>4</v>
+      </c>
+      <c r="BN5">
+        <f>SUM(Sheet2!G1:G50)</f>
+        <v>17</v>
+      </c>
+      <c r="BO5">
+        <f>SUM(Sheet2!H1:H50)</f>
+        <v>855</v>
+      </c>
+      <c r="BP5">
+        <f t="shared" si="0"/>
+        <v>614630</v>
+      </c>
+      <c r="BQ5">
+        <f t="shared" si="1"/>
+        <v>3796795026</v>
+      </c>
+      <c r="BR5">
+        <f t="shared" si="2"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="BS5">
+        <f t="shared" si="3"/>
+        <v>6.1463000000000001</v>
+      </c>
+      <c r="BT5">
+        <f t="shared" si="4"/>
+        <v>37.967950260000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6345,8 +7872,39 @@
       <c r="BL6" t="s">
         <v>69</v>
       </c>
+      <c r="BM6">
+        <v>5</v>
+      </c>
+      <c r="BN6">
+        <f>SUM(Sheet2!I1:I50)</f>
+        <v>23</v>
+      </c>
+      <c r="BO6">
+        <f>SUM(Sheet2!J1:J50)</f>
+        <v>1082</v>
+      </c>
+      <c r="BP6">
+        <f t="shared" si="0"/>
+        <v>3004597</v>
+      </c>
+      <c r="BQ6">
+        <f t="shared" si="1"/>
+        <v>4239096830</v>
+      </c>
+      <c r="BR6">
+        <f t="shared" si="2"/>
+        <v>10.82</v>
+      </c>
+      <c r="BS6">
+        <f t="shared" si="3"/>
+        <v>30.045970000000001</v>
+      </c>
+      <c r="BT6">
+        <f t="shared" si="4"/>
+        <v>42.390968299999997</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6539,8 +8097,39 @@
       <c r="BL7" t="s">
         <v>70</v>
       </c>
+      <c r="BM7">
+        <v>6</v>
+      </c>
+      <c r="BN7">
+        <f>SUM(Sheet2!K1:K50)</f>
+        <v>30</v>
+      </c>
+      <c r="BO7">
+        <f>SUM(Sheet2!L1:L50)</f>
+        <v>1251</v>
+      </c>
+      <c r="BP7">
+        <f t="shared" si="0"/>
+        <v>4210718</v>
+      </c>
+      <c r="BQ7">
+        <f t="shared" si="1"/>
+        <v>4246155502</v>
+      </c>
+      <c r="BR7">
+        <f t="shared" si="2"/>
+        <v>12.51</v>
+      </c>
+      <c r="BS7">
+        <f t="shared" si="3"/>
+        <v>42.10718</v>
+      </c>
+      <c r="BT7">
+        <f t="shared" si="4"/>
+        <v>42.461555019999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6733,8 +8322,39 @@
       <c r="BL8" t="s">
         <v>66</v>
       </c>
+      <c r="BM8">
+        <v>7</v>
+      </c>
+      <c r="BN8">
+        <f>SUM(Sheet2!M1:M50)</f>
+        <v>22</v>
+      </c>
+      <c r="BO8">
+        <f>SUM(Sheet2!N1:N50)</f>
+        <v>1263</v>
+      </c>
+      <c r="BP8">
+        <f t="shared" si="0"/>
+        <v>12447394</v>
+      </c>
+      <c r="BQ8">
+        <f t="shared" si="1"/>
+        <v>4741255823</v>
+      </c>
+      <c r="BR8">
+        <f t="shared" si="2"/>
+        <v>12.63</v>
+      </c>
+      <c r="BS8">
+        <f t="shared" si="3"/>
+        <v>124.47394</v>
+      </c>
+      <c r="BT8">
+        <f t="shared" si="4"/>
+        <v>47.412558230000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -6927,8 +8547,39 @@
       <c r="BL9" t="s">
         <v>71</v>
       </c>
+      <c r="BM9">
+        <v>8</v>
+      </c>
+      <c r="BN9">
+        <f>SUM(Sheet2!O1:O50)</f>
+        <v>28</v>
+      </c>
+      <c r="BO9">
+        <f>SUM(Sheet2!P1:P50)</f>
+        <v>1285</v>
+      </c>
+      <c r="BP9">
+        <f t="shared" si="0"/>
+        <v>5365946</v>
+      </c>
+      <c r="BQ9">
+        <f t="shared" si="1"/>
+        <v>4327008325</v>
+      </c>
+      <c r="BR9">
+        <f t="shared" si="2"/>
+        <v>12.85</v>
+      </c>
+      <c r="BS9">
+        <f t="shared" si="3"/>
+        <v>53.659460000000003</v>
+      </c>
+      <c r="BT9">
+        <f t="shared" si="4"/>
+        <v>43.270083249999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7121,8 +8772,39 @@
       <c r="BL10" t="s">
         <v>72</v>
       </c>
+      <c r="BM10">
+        <v>9</v>
+      </c>
+      <c r="BN10">
+        <f>SUM(Sheet2!Q1:Q50)</f>
+        <v>24</v>
+      </c>
+      <c r="BO10">
+        <f>SUM(Sheet2!R1:R50)</f>
+        <v>1544</v>
+      </c>
+      <c r="BP10">
+        <f t="shared" si="0"/>
+        <v>961832</v>
+      </c>
+      <c r="BQ10">
+        <f t="shared" si="1"/>
+        <v>4576059875</v>
+      </c>
+      <c r="BR10">
+        <f t="shared" si="2"/>
+        <v>15.44</v>
+      </c>
+      <c r="BS10">
+        <f t="shared" si="3"/>
+        <v>9.6183200000000006</v>
+      </c>
+      <c r="BT10">
+        <f t="shared" si="4"/>
+        <v>45.76059875</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7315,8 +8997,39 @@
       <c r="BL11" t="s">
         <v>73</v>
       </c>
+      <c r="BM11">
+        <v>10</v>
+      </c>
+      <c r="BN11">
+        <f>SUM(Sheet2!S1:S50)</f>
+        <v>20</v>
+      </c>
+      <c r="BO11">
+        <f>SUM(Sheet2!T1:T50)</f>
+        <v>970</v>
+      </c>
+      <c r="BP11">
+        <f t="shared" si="0"/>
+        <v>4186772</v>
+      </c>
+      <c r="BQ11">
+        <f t="shared" si="1"/>
+        <v>4647941679</v>
+      </c>
+      <c r="BR11">
+        <f t="shared" si="2"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="BS11">
+        <f t="shared" si="3"/>
+        <v>41.867719999999998</v>
+      </c>
+      <c r="BT11">
+        <f t="shared" si="4"/>
+        <v>46.479416790000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -7509,8 +9222,39 @@
       <c r="BL12" t="s">
         <v>74</v>
       </c>
+      <c r="BM12">
+        <v>11</v>
+      </c>
+      <c r="BN12">
+        <f>SUM(Sheet2!U1:U50)</f>
+        <v>3</v>
+      </c>
+      <c r="BO12">
+        <f>SUM(Sheet2!V1:V50)</f>
+        <v>955</v>
+      </c>
+      <c r="BP12">
+        <f t="shared" si="0"/>
+        <v>6483915</v>
+      </c>
+      <c r="BQ12">
+        <f t="shared" si="1"/>
+        <v>4897043345</v>
+      </c>
+      <c r="BR12">
+        <f t="shared" si="2"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="BS12">
+        <f t="shared" si="3"/>
+        <v>64.839150000000004</v>
+      </c>
+      <c r="BT12">
+        <f t="shared" si="4"/>
+        <v>48.970433450000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -7703,8 +9447,72 @@
       <c r="BL13" t="s">
         <v>75</v>
       </c>
+      <c r="BM13">
+        <v>12</v>
+      </c>
+      <c r="BN13">
+        <f>SUM(Sheet2!W1:W50)</f>
+        <v>33</v>
+      </c>
+      <c r="BO13">
+        <f>SUM(Sheet2!X1:X50)</f>
+        <v>717</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="0"/>
+        <v>3888388</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" si="1"/>
+        <v>5141110170</v>
+      </c>
+      <c r="BR13">
+        <f t="shared" si="2"/>
+        <v>7.17</v>
+      </c>
+      <c r="BS13">
+        <f t="shared" si="3"/>
+        <v>38.883879999999998</v>
+      </c>
+      <c r="BT13">
+        <f t="shared" si="4"/>
+        <v>51.411101700000003</v>
+      </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="BM14" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN14">
+        <f>AVERAGE(BN2:BN13)</f>
+        <v>24.833333333333332</v>
+      </c>
+      <c r="BO14">
+        <f t="shared" ref="BO14:BQ14" si="5">AVERAGE(BO2:BO13)</f>
+        <v>1156.4166666666667</v>
+      </c>
+      <c r="BP14">
+        <f t="shared" si="5"/>
+        <v>5341086.666666667</v>
+      </c>
+      <c r="BQ14">
+        <f t="shared" si="5"/>
+        <v>4408538819.25</v>
+      </c>
+      <c r="BR14">
+        <f t="shared" ref="BR14" si="6">AVERAGE(BR2:BR13)</f>
+        <v>11.564166666666665</v>
+      </c>
+      <c r="BS14">
+        <f t="shared" ref="BS14" si="7">AVERAGE(BS2:BS13)</f>
+        <v>53.410866666666664</v>
+      </c>
+      <c r="BT14">
+        <f t="shared" ref="BT14" si="8">AVERAGE(BT2:BT13)</f>
+        <v>44.085388192500005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -12746,6 +14554,3740 @@
       </c>
       <c r="BL43" t="s">
         <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X59"/>
+  <sheetViews>
+    <sheetView topLeftCell="N10" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10:X59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>21</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>16</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>25</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>17</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>26</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>19</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>25</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>21</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>31</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>25</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>23</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>19</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>16</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>21</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>15</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>25</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>23</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>25</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>16</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>18</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>17</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>31</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>23</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>26</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>21</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>23</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>18</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>21</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>26</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>31</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>16</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>21</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>31</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>29</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>24</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>17</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>16</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>23</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>23</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>22</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>21</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>15</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>25</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>19</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>16</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>16</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>27</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>28</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>17</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>31</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>15</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>30</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>27</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>16</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>32</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>23</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>41</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>41</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>34</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>62</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>21</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>25</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>29</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>29</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>16</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>17</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>27</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>24</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>36</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>25</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>15</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>28</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>29</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>21</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>25</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>37</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>17</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>16</v>
+      </c>
+      <c r="W17">
+        <v>16</v>
+      </c>
+      <c r="X17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>22</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>27</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>49</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>35</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>16</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>16</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>37</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>21</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>27</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>36</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>38</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>15</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>26</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>21</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>26</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>35</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>21</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>16</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>29</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>23</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>25</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>25</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>41</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>17</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>29</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>45</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>27</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>23</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>32</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>25</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>7</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>23</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>28</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>28</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>23</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>25</v>
+      </c>
+      <c r="S23">
+        <v>16</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>32</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>45</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>33</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>32</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>45</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>45</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>16</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>15</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>28</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>16</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>27</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>22</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>16</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>16</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>21</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>23</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>30</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>22</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>18</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>31</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>15</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>29</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>64</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>16</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>16</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>17</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>24</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>30</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>30</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>15</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>16</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>36</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>14</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>19</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>19</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>28</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>23</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>79</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>16</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>15</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>27</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>21</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>27</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>25</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>59</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>15</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>16</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>47</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>25</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>29</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>35</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>16</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>28</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>40</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>13</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>28</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>22</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>29</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>19</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>16</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>15</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>39</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>22</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>67</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>26</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>24</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>26</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>16</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>15</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>26</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>21</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>35</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>23</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>84</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>12</v>
+      </c>
+      <c r="W34">
+        <v>15</v>
+      </c>
+      <c r="X34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>43</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>29</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>28</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>83</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>15</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>29</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>22</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>44</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>23</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>28</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>29</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>16</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>31</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>59</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>13</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>23</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>48</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>20</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>22</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>16</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>27</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>17</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>30</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>34</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>15</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>32</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>15</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>28</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>51</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>14</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>19</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>27</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>31</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>28</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>29</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>32</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>14</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>36</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>22</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>18</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>28</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>23</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>31</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>23</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>31</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>47</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>24</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>18</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>22</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>21</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>22</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>28</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>24</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>23</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>32</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>18</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>14</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>17</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>27</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>23</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>29</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>27</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>23</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>16</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>23</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>25</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>15</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>18</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>30</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>32</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>24</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>20</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>31</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>19</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>17</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>25</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>29</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>18</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>15</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>15</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>19</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>14</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>25</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>21</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>21</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>25</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>15</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>16</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>32</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>14</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>18</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>32</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>24</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>28</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>30</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>16</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>16</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>21</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>14</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>18</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>40</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>30</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>18</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>31</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>28</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>32</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>22</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>26</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>18</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>24</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>16</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>17</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>16</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>16</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>18</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>21</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>17</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>23</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>22</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>13</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>19</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>16</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>15</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>13</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>9</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>18</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>22</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>23</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>21</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>15</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>31</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -12753,12 +18295,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="B6:AY8 B1:AY1"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
